--- a/neu/KO_Verrechnung_CeBrACloud_Infrastructure_OK.xlsx
+++ b/neu/KO_Verrechnung_CeBrACloud_Infrastructure_OK.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TI230\DSIM-CCS\02 ADMINISTRATION\Verrechnung\2020-02\KO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TI230\DSIM-CCS\02 ADMINISTRATION\Verrechnung\2020-03\KO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55597B-0015-4267-B9A9-8C90DB01320A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BCC016-5471-40BC-A507-96727C8DCC7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{27A48217-CE25-438C-94D7-EDC0E8D81621}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="19200" windowHeight="16830" activeTab="4" xr2:uid="{AE6032FB-C1CD-4783-85B1-2C9EC652EA63}"/>
   </bookViews>
   <sheets>
     <sheet name="virtuell i-3" sheetId="6" r:id="rId1"/>
-    <sheet name="physisch i-3" sheetId="7" r:id="rId2"/>
-    <sheet name="physisch i-1" sheetId="8" r:id="rId3"/>
+    <sheet name="physisch i-3" sheetId="8" r:id="rId2"/>
+    <sheet name="physisch i-1" sheetId="7" r:id="rId3"/>
     <sheet name="Datashare" sheetId="9" r:id="rId4"/>
     <sheet name="Fremdkomponenten" sheetId="10" r:id="rId5"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="756">
   <si>
     <t>MID</t>
   </si>
@@ -319,15 +319,6 @@
     <t>B16910FE</t>
   </si>
   <si>
-    <t>B16920E9</t>
-  </si>
-  <si>
-    <t>P-Application02</t>
-  </si>
-  <si>
-    <t>B16920EA</t>
-  </si>
-  <si>
     <t>A45910FE</t>
   </si>
   <si>
@@ -403,12 +394,6 @@
     <t>m009</t>
   </si>
   <si>
-    <t>A09910E5</t>
-  </si>
-  <si>
-    <t>P-Appl01</t>
-  </si>
-  <si>
     <t>A09910EC</t>
   </si>
   <si>
@@ -481,25 +466,25 @@
     <t>A93910EE</t>
   </si>
   <si>
-    <t>A16910B0</t>
+    <t>A16910C0</t>
   </si>
   <si>
     <t>P-m016_DeliveryController01</t>
   </si>
   <si>
-    <t>A16910B1</t>
+    <t>A16910C1</t>
   </si>
   <si>
     <t>P-m016_DeliveryController02</t>
   </si>
   <si>
-    <t>A93910B0</t>
+    <t>A93910AE</t>
   </si>
   <si>
     <t>P-m093_DeliveryController01</t>
   </si>
   <si>
-    <t>A93910B1</t>
+    <t>A93910AF</t>
   </si>
   <si>
     <t>P-m093_DeliveryController02</t>
@@ -541,25 +526,25 @@
     <t>P-MyQ_Printserver</t>
   </si>
   <si>
-    <t>A53910A4</t>
+    <t>A53910A2</t>
   </si>
   <si>
     <t>P-m053_DeliveryController01</t>
   </si>
   <si>
-    <t>A53910A5</t>
+    <t>A53910A3</t>
   </si>
   <si>
     <t>P-m053_DeliveryController02</t>
   </si>
   <si>
-    <t>B25910BC</t>
+    <t>B25910C0</t>
   </si>
   <si>
     <t>P-m125_DeliveryController01</t>
   </si>
   <si>
-    <t>B25910BD</t>
+    <t>B25910C1</t>
   </si>
   <si>
     <t>P-m125_DeliveryController02</t>
@@ -640,19 +625,19 @@
     <t>A02930E6</t>
   </si>
   <si>
-    <t>A0791024</t>
+    <t>A0791026</t>
   </si>
   <si>
     <t>P-DeliveryController01</t>
   </si>
   <si>
-    <t>A0791025</t>
+    <t>A0791027</t>
   </si>
   <si>
     <t>P-DeliveryController02</t>
   </si>
   <si>
-    <t>A23930C0</t>
+    <t>A23930BE</t>
   </si>
   <si>
     <t>P-m023_DeliveryController01</t>
@@ -661,315 +646,306 @@
     <t>m023</t>
   </si>
   <si>
-    <t>A23930C1</t>
+    <t>A23930BF</t>
   </si>
   <si>
     <t>P-m023_DeliveryController02</t>
   </si>
   <si>
-    <t>A23930DF</t>
+    <t>A23930EA</t>
+  </si>
+  <si>
+    <t>P-DominoDevelopment</t>
+  </si>
+  <si>
+    <t>A23930EB</t>
+  </si>
+  <si>
+    <t>T-Domino</t>
+  </si>
+  <si>
+    <t>A23930EC</t>
+  </si>
+  <si>
+    <t>P-3A_16</t>
+  </si>
+  <si>
+    <t>A23930ED</t>
+  </si>
+  <si>
+    <t>P-Domino02</t>
+  </si>
+  <si>
+    <t>A23930EE</t>
+  </si>
+  <si>
+    <t>P-Domino01</t>
+  </si>
+  <si>
+    <t>A23930FD</t>
+  </si>
+  <si>
+    <t>A23930FE</t>
+  </si>
+  <si>
+    <t>B74910E6</t>
+  </si>
+  <si>
+    <t>P-DeliveryController</t>
+  </si>
+  <si>
+    <t>B749148C</t>
+  </si>
+  <si>
+    <t>P-WorkerServer</t>
+  </si>
+  <si>
+    <t>C22910D0</t>
+  </si>
+  <si>
+    <t>C22910D1</t>
+  </si>
+  <si>
+    <t>A4492095</t>
+  </si>
+  <si>
+    <t>A44920E5</t>
+  </si>
+  <si>
+    <t>A44920E6</t>
+  </si>
+  <si>
+    <t>P-Notes04</t>
+  </si>
+  <si>
+    <t>C0900401</t>
+  </si>
+  <si>
+    <t>xTSM_Archiv</t>
+  </si>
+  <si>
+    <t>A02930E7</t>
+  </si>
+  <si>
+    <t>P-m002_Printserver01</t>
+  </si>
+  <si>
+    <t>A04910C4</t>
+  </si>
+  <si>
+    <t>P-m004_DeliveryController</t>
+  </si>
+  <si>
+    <t>A04910C5</t>
+  </si>
+  <si>
+    <t>A09910AE</t>
+  </si>
+  <si>
+    <t>A09910AF</t>
+  </si>
+  <si>
+    <t>A0991006</t>
+  </si>
+  <si>
+    <t>P-m009_Zutrittskontrolle</t>
+  </si>
+  <si>
+    <t>A0991007</t>
+  </si>
+  <si>
+    <t>P-m009_Safeverwaltung</t>
+  </si>
+  <si>
+    <t>B16910CE</t>
+  </si>
+  <si>
+    <t>B16910CF</t>
+  </si>
+  <si>
+    <t>A23930D3</t>
+  </si>
+  <si>
+    <t>P-midiTec</t>
+  </si>
+  <si>
+    <t>A23930D1</t>
+  </si>
+  <si>
+    <t>P-Intranet</t>
+  </si>
+  <si>
+    <t>A23930D2</t>
+  </si>
+  <si>
+    <t>P-Datenbankserver</t>
+  </si>
+  <si>
+    <t>A44920C6</t>
+  </si>
+  <si>
+    <t>B75920FD</t>
+  </si>
+  <si>
+    <t>m175</t>
+  </si>
+  <si>
+    <t>B75920FE</t>
+  </si>
+  <si>
+    <t>B75920C1</t>
+  </si>
+  <si>
+    <t>B75920C2</t>
+  </si>
+  <si>
+    <t>B75920C3</t>
+  </si>
+  <si>
+    <t>B75920C4</t>
+  </si>
+  <si>
+    <t>A44920E7</t>
+  </si>
+  <si>
+    <t>P-m044_DFS1</t>
+  </si>
+  <si>
+    <t>A44920E8</t>
+  </si>
+  <si>
+    <t>P-m044_DFS2</t>
+  </si>
+  <si>
+    <t>C22910EB</t>
+  </si>
+  <si>
+    <t>P-Notes_Archiv</t>
+  </si>
+  <si>
+    <t>C22910EC</t>
+  </si>
+  <si>
+    <t>P-m222_Printserver</t>
+  </si>
+  <si>
+    <t>A4492094</t>
+  </si>
+  <si>
+    <t>A49910D2</t>
+  </si>
+  <si>
+    <t>xP-TSM_A49910D2</t>
+  </si>
+  <si>
+    <t>A49910FD</t>
+  </si>
+  <si>
+    <t>xP-TSM_A49910FD</t>
+  </si>
+  <si>
+    <t>A49910FE</t>
+  </si>
+  <si>
+    <t>xP-TSM_A49910FE</t>
+  </si>
+  <si>
+    <t>A50910EE</t>
+  </si>
+  <si>
+    <t>xP-TSM_A50910EE</t>
+  </si>
+  <si>
+    <t>A50910FD</t>
+  </si>
+  <si>
+    <t>xP-TSM_A50910FD</t>
+  </si>
+  <si>
+    <t>A50910FE</t>
+  </si>
+  <si>
+    <t>xP-TSM_A50910FE</t>
+  </si>
+  <si>
+    <t>C09910D9</t>
+  </si>
+  <si>
+    <t>xP-TSM_C09910D9</t>
+  </si>
+  <si>
+    <t>A07910E2</t>
+  </si>
+  <si>
+    <t>P-PrintServer</t>
+  </si>
+  <si>
+    <t>A07910E3</t>
+  </si>
+  <si>
+    <t>A4492088</t>
+  </si>
+  <si>
+    <t>T-m044_DeliveryController</t>
+  </si>
+  <si>
+    <t>A44920AD</t>
+  </si>
+  <si>
+    <t>T-m044_WorkerServer</t>
+  </si>
+  <si>
+    <t>A0293092</t>
+  </si>
+  <si>
+    <t>xP-TSM_A0293092</t>
+  </si>
+  <si>
+    <t>A53910D1</t>
+  </si>
+  <si>
+    <t>xP-TSM_A53910D1</t>
+  </si>
+  <si>
+    <t>C2291296</t>
+  </si>
+  <si>
+    <t>P-Sharepoint_Frontend</t>
+  </si>
+  <si>
+    <t>C2291297</t>
+  </si>
+  <si>
+    <t>P-Sharepoint_Application</t>
+  </si>
+  <si>
+    <t>C2291299</t>
+  </si>
+  <si>
+    <t>P-Office_Online</t>
+  </si>
+  <si>
+    <t>C2291298</t>
+  </si>
+  <si>
+    <t>P-Sharepoint-SQL</t>
+  </si>
+  <si>
+    <t>A09910EF</t>
+  </si>
+  <si>
+    <t>P-3A-Server</t>
+  </si>
+  <si>
+    <t>A44910B1</t>
+  </si>
+  <si>
+    <t>A0991004</t>
   </si>
   <si>
     <t>P-Printserver</t>
   </si>
   <si>
-    <t>A23930EA</t>
-  </si>
-  <si>
-    <t>P-DominoDevelopment</t>
-  </si>
-  <si>
-    <t>A23930EB</t>
-  </si>
-  <si>
-    <t>T-Domino</t>
-  </si>
-  <si>
-    <t>A23930EC</t>
-  </si>
-  <si>
-    <t>P-3A_16</t>
-  </si>
-  <si>
-    <t>A23930ED</t>
-  </si>
-  <si>
-    <t>P-Domino02</t>
-  </si>
-  <si>
-    <t>A23930EE</t>
-  </si>
-  <si>
-    <t>P-Domino01</t>
-  </si>
-  <si>
-    <t>A23930FD</t>
-  </si>
-  <si>
-    <t>A23930FE</t>
-  </si>
-  <si>
-    <t>B74910E8</t>
-  </si>
-  <si>
-    <t>P-DeliveryController</t>
-  </si>
-  <si>
-    <t>B74910E9</t>
-  </si>
-  <si>
-    <t>P-WorkerServer</t>
-  </si>
-  <si>
-    <t>C22910D0</t>
-  </si>
-  <si>
-    <t>C22910D1</t>
-  </si>
-  <si>
-    <t>A4492095</t>
-  </si>
-  <si>
-    <t>A44920E5</t>
-  </si>
-  <si>
-    <t>A44920E6</t>
-  </si>
-  <si>
-    <t>P-Notes04</t>
-  </si>
-  <si>
-    <t>C0900401</t>
-  </si>
-  <si>
-    <t>xTSM_Archiv</t>
-  </si>
-  <si>
-    <t>A02930E7</t>
-  </si>
-  <si>
-    <t>P-m002_Printserver01</t>
-  </si>
-  <si>
-    <t>A04910C4</t>
-  </si>
-  <si>
-    <t>P-m004_DeliveryController</t>
-  </si>
-  <si>
-    <t>A04910C5</t>
-  </si>
-  <si>
-    <t>A09910AE</t>
-  </si>
-  <si>
-    <t>A09910AF</t>
-  </si>
-  <si>
-    <t>A0991006</t>
-  </si>
-  <si>
-    <t>P-m009_Zutrittskontrolle</t>
-  </si>
-  <si>
-    <t>A0991007</t>
-  </si>
-  <si>
-    <t>P-m009_Safeverwaltung</t>
-  </si>
-  <si>
-    <t>B16910D1</t>
-  </si>
-  <si>
-    <t>B16910D0</t>
-  </si>
-  <si>
-    <t>A23930D3</t>
-  </si>
-  <si>
-    <t>P-midiTec</t>
-  </si>
-  <si>
-    <t>A23930D1</t>
-  </si>
-  <si>
-    <t>P-Intranet</t>
-  </si>
-  <si>
-    <t>A23930D2</t>
-  </si>
-  <si>
-    <t>P-Datenbankserver</t>
-  </si>
-  <si>
-    <t>A44920C6</t>
-  </si>
-  <si>
-    <t>B75920FD</t>
-  </si>
-  <si>
-    <t>m175</t>
-  </si>
-  <si>
-    <t>B75920FE</t>
-  </si>
-  <si>
-    <t>B75920C1</t>
-  </si>
-  <si>
-    <t>B75920C2</t>
-  </si>
-  <si>
-    <t>B75920C3</t>
-  </si>
-  <si>
-    <t>B75920C4</t>
-  </si>
-  <si>
-    <t>A44920E7</t>
-  </si>
-  <si>
-    <t>P-m044_DFS1</t>
-  </si>
-  <si>
-    <t>A44920E8</t>
-  </si>
-  <si>
-    <t>P-m044_DFS2</t>
-  </si>
-  <si>
-    <t>C22910EB</t>
-  </si>
-  <si>
-    <t>P-Notes_Archiv</t>
-  </si>
-  <si>
-    <t>C22910EC</t>
-  </si>
-  <si>
-    <t>P-m222_Printserver</t>
-  </si>
-  <si>
-    <t>A4492094</t>
-  </si>
-  <si>
-    <t>A0293093</t>
-  </si>
-  <si>
-    <t>xP-TSM_A0293093</t>
-  </si>
-  <si>
-    <t>A49910D2</t>
-  </si>
-  <si>
-    <t>xP-TSM_A49910D2</t>
-  </si>
-  <si>
-    <t>A49910FD</t>
-  </si>
-  <si>
-    <t>xP-TSM_A49910FD</t>
-  </si>
-  <si>
-    <t>A49910FE</t>
-  </si>
-  <si>
-    <t>xP-TSM_A49910FE</t>
-  </si>
-  <si>
-    <t>A50910EE</t>
-  </si>
-  <si>
-    <t>xP-TSM_A50910EE</t>
-  </si>
-  <si>
-    <t>A50910FD</t>
-  </si>
-  <si>
-    <t>xP-TSM_A50910FD</t>
-  </si>
-  <si>
-    <t>A50910FE</t>
-  </si>
-  <si>
-    <t>xP-TSM_A50910FE</t>
-  </si>
-  <si>
-    <t>C09910D9</t>
-  </si>
-  <si>
-    <t>xP-TSM_C09910D9</t>
-  </si>
-  <si>
-    <t>A07910E2</t>
-  </si>
-  <si>
-    <t>P-PrintServer</t>
-  </si>
-  <si>
-    <t>A07910E3</t>
-  </si>
-  <si>
-    <t>A4492088</t>
-  </si>
-  <si>
-    <t>T-m044_DeliveryController</t>
-  </si>
-  <si>
-    <t>A44920AD</t>
-  </si>
-  <si>
-    <t>T-m044_WorkerServer</t>
-  </si>
-  <si>
-    <t>A0293092</t>
-  </si>
-  <si>
-    <t>xP-TSM_A0293092</t>
-  </si>
-  <si>
-    <t>A53910D1</t>
-  </si>
-  <si>
-    <t>xP-TSM_A53910D1</t>
-  </si>
-  <si>
-    <t>C2291296</t>
-  </si>
-  <si>
-    <t>P-Sharepoint_Frontend</t>
-  </si>
-  <si>
-    <t>C2291297</t>
-  </si>
-  <si>
-    <t>P-Sharepoint_Application</t>
-  </si>
-  <si>
-    <t>C2291299</t>
-  </si>
-  <si>
-    <t>P-Office_Online</t>
-  </si>
-  <si>
-    <t>C2291298</t>
-  </si>
-  <si>
-    <t>P-Sharepoint-SQL</t>
-  </si>
-  <si>
-    <t>A09910EF</t>
-  </si>
-  <si>
-    <t>P-3A-Server</t>
-  </si>
-  <si>
-    <t>A44910B1</t>
-  </si>
-  <si>
-    <t>A0991004</t>
-  </si>
-  <si>
     <t>A16910ED</t>
   </si>
   <si>
@@ -1237,6 +1213,12 @@
     <t>P-m122_DominoServer</t>
   </si>
   <si>
+    <t>A75910CA</t>
+  </si>
+  <si>
+    <t>P-m075_Print01</t>
+  </si>
+  <si>
     <t>A75910EF</t>
   </si>
   <si>
@@ -1324,25 +1306,43 @@
     <t>P-m001_3B_16</t>
   </si>
   <si>
-    <t>ESU_A53910DE</t>
+    <t>A53910E4</t>
+  </si>
+  <si>
+    <t>A53910EC</t>
+  </si>
+  <si>
+    <t>B75920EF</t>
+  </si>
+  <si>
+    <t>P-Baseserver</t>
+  </si>
+  <si>
+    <t>ESU_A23930D3</t>
   </si>
   <si>
     <t>//ESU_Jahreslizenz</t>
   </si>
   <si>
-    <t>ESU_A53910E2</t>
-  </si>
-  <si>
-    <t>A53910EC</t>
-  </si>
-  <si>
-    <t>ESU_B25910D0</t>
-  </si>
-  <si>
-    <t>B75920EF</t>
-  </si>
-  <si>
-    <t>P-Baseserver</t>
+    <t>ESU_A53910E3</t>
+  </si>
+  <si>
+    <t>A44910B0_ESU</t>
+  </si>
+  <si>
+    <t>A44910B1_ESU</t>
+  </si>
+  <si>
+    <t>A44910C5_ESU</t>
+  </si>
+  <si>
+    <t>B74910EF</t>
+  </si>
+  <si>
+    <t>A109103D</t>
+  </si>
+  <si>
+    <t>A109103C</t>
   </si>
   <si>
     <t>B25910C3</t>
@@ -1381,7 +1381,7 @@
     <t>P-WorkerServer05</t>
   </si>
   <si>
-    <t>A53910AE</t>
+    <t>A539148C</t>
   </si>
   <si>
     <t>P-WorkerServer04</t>
@@ -1582,7 +1582,7 @@
     <t>B25910D5</t>
   </si>
   <si>
-    <t>A0791013</t>
+    <t>A079148C</t>
   </si>
   <si>
     <t>A0791014</t>
@@ -1930,12 +1930,6 @@
     <t>A449207D</t>
   </si>
   <si>
-    <t>A449207F</t>
-  </si>
-  <si>
-    <t>A449207E</t>
-  </si>
-  <si>
     <t>A099148C</t>
   </si>
   <si>
@@ -1987,12 +1981,6 @@
     <t>A4492077</t>
   </si>
   <si>
-    <t>A4492078</t>
-  </si>
-  <si>
-    <t>A4492079</t>
-  </si>
-  <si>
     <t>C22910B5</t>
   </si>
   <si>
@@ -2041,7 +2029,7 @@
     <t>C22910B6</t>
   </si>
   <si>
-    <t>B25910D7</t>
+    <t>B259148C</t>
   </si>
   <si>
     <t>P-m125_CoPla</t>
@@ -2050,9 +2038,6 @@
     <t>A44920D8</t>
   </si>
   <si>
-    <t>xTSM-Notes_Archivserver</t>
-  </si>
-  <si>
     <t>B22910C6</t>
   </si>
   <si>
@@ -2068,31 +2053,49 @@
     <t>B22910C3</t>
   </si>
   <si>
+    <t>A01910D1</t>
+  </si>
+  <si>
+    <t>P_m001_WorkerServer</t>
+  </si>
+  <si>
+    <t>A01910CD</t>
+  </si>
+  <si>
+    <t>A01910CE</t>
+  </si>
+  <si>
+    <t>A01910CF</t>
+  </si>
+  <si>
+    <t>A01910D0</t>
+  </si>
+  <si>
+    <t>A2991020</t>
+  </si>
+  <si>
+    <t>Leih-ESX</t>
+  </si>
+  <si>
+    <t>m029</t>
+  </si>
+  <si>
+    <t>A2991030</t>
+  </si>
+  <si>
     <t>A01910CC</t>
   </si>
   <si>
-    <t>P_m001_WorkerServer</t>
-  </si>
-  <si>
-    <t>A01910D1</t>
-  </si>
-  <si>
-    <t>A01910CD</t>
-  </si>
-  <si>
-    <t>A01910CE</t>
-  </si>
-  <si>
-    <t>A01910CF</t>
-  </si>
-  <si>
-    <t>A01910D0</t>
-  </si>
-  <si>
-    <t>A44910CA_ESU</t>
-  </si>
-  <si>
-    <t>ESU-Jahreslizenz-GS</t>
+    <t>A29_SAN01</t>
+  </si>
+  <si>
+    <t>Leih-Netapp-Shelf1</t>
+  </si>
+  <si>
+    <t>A29_SAN02</t>
+  </si>
+  <si>
+    <t>Leih-Netapp-Shelf2</t>
   </si>
   <si>
     <t>A0291SAN</t>
@@ -2111,12 +2114,6 @@
   </si>
   <si>
     <t>xP-m001-002 - ESX02</t>
-  </si>
-  <si>
-    <t>A019107B</t>
-  </si>
-  <si>
-    <t>P-Citrix02</t>
   </si>
   <si>
     <t>A019107D</t>
@@ -2312,10 +2309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2323,27 +2317,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2358,18 +2338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2683,11 +2654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4803B-5BF7-47BF-81C3-147EDA0BECD1}">
-  <dimension ref="A1:F248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0F0A7E-1BBF-4DE9-AB67-B6945BFE3E52}">
+  <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F205" sqref="F1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>377.52</v>
+        <v>233.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <v>233.62</v>
+        <v>159.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,7 +2760,7 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>175</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>263.8</v>
+        <v>226.6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>851.86</v>
+        <v>844.66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,7 +2820,7 @@
         <v>17</v>
       </c>
       <c r="F8">
-        <v>1251.56</v>
+        <v>735.56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>239.8</v>
+        <v>704.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,7 +2860,7 @@
         <v>27</v>
       </c>
       <c r="F10">
-        <v>248.74</v>
+        <v>186.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,7 +2880,7 @@
         <v>27</v>
       </c>
       <c r="F11">
-        <v>237.54</v>
+        <v>162.30000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,7 +2960,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>304.26</v>
+        <v>307.86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,7 +3000,7 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>218.7</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="F19">
-        <v>161.80000000000001</v>
+        <v>160.6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,7 +3060,7 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>544.6</v>
+        <v>548.20000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,7 +3080,7 @@
         <v>43</v>
       </c>
       <c r="F21">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,7 +3100,7 @@
         <v>43</v>
       </c>
       <c r="F22">
-        <v>1061.76</v>
+        <v>1080.96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="F23">
-        <v>1068.04</v>
+        <v>656.44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,7 +3160,7 @@
         <v>27</v>
       </c>
       <c r="F25">
-        <v>656.26</v>
+        <v>657.46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,7 +3180,7 @@
         <v>56</v>
       </c>
       <c r="F26">
-        <v>188</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,7 +3200,7 @@
         <v>56</v>
       </c>
       <c r="F27">
-        <v>159.19999999999999</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,7 +3220,7 @@
         <v>56</v>
       </c>
       <c r="F28">
-        <v>1080.96</v>
+        <v>1128.56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2073.86</v>
+        <v>2072.66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2074.6</v>
+        <v>2075.8000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>633.6</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,7 +3300,7 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>577.4</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>225.4</v>
+        <v>218.2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>257.7</v>
+        <v>757.7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>148.91999999999999</v>
+        <v>648.91999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="F43">
-        <v>308.88</v>
+        <v>813.18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,7 +3540,7 @@
         <v>86</v>
       </c>
       <c r="F44">
-        <v>163.19999999999999</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3589,7 +3560,7 @@
         <v>86</v>
       </c>
       <c r="F45">
-        <v>163.19999999999999</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="F46">
-        <v>265.2</v>
+        <v>254.4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,7 +3600,7 @@
         <v>91</v>
       </c>
       <c r="F47">
-        <v>517.86</v>
+        <v>515.46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,7 +3620,7 @@
         <v>91</v>
       </c>
       <c r="F48">
-        <v>175.9</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,16 +3651,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>91</v>
-      </c>
       <c r="F50">
-        <v>269.2</v>
+        <v>639.24</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,16 +3671,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F51">
-        <v>134.68</v>
+        <v>183.7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,36 +3691,36 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F52">
-        <v>646.44000000000005</v>
+        <v>668.56</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F53">
-        <v>183.7</v>
+        <v>137.22</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,96 +3731,96 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F54">
-        <v>653.55999999999995</v>
+        <v>182.04</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>137.22</v>
+        <v>527.76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>183.24</v>
+        <v>6230.4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F57">
-        <v>532.55999999999995</v>
+        <v>981.96</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
       <c r="F58">
-        <v>6140.4</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,36 +3831,36 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F59">
-        <v>977.16</v>
+        <v>434.6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F60">
-        <v>182.7</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,16 +3871,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F61">
-        <v>461</v>
+        <v>161.1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,10 +3897,10 @@
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F62">
-        <v>169.9</v>
+        <v>906.72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,16 +3911,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63">
-        <v>161.1</v>
+        <v>914.76</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,70 +3937,70 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F64">
-        <v>814.32</v>
+        <v>185.46</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
         <v>118</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>110</v>
-      </c>
       <c r="F65">
-        <v>896.76</v>
+        <v>168.2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66">
-        <v>185.46</v>
+        <v>781.16</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F67">
-        <v>568.64</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4040,76 +4011,76 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F68">
-        <v>168.2</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
         <v>126</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
-      </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F69">
-        <v>776.36</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F70">
-        <v>169.4</v>
+        <v>279.39999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
         <v>129</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F71">
-        <v>177.8</v>
+        <v>484.16</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,10 +4097,10 @@
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F72">
-        <v>103.8</v>
+        <v>227.4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4140,56 +4111,56 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F73">
-        <v>279.39999999999998</v>
+        <v>471.84</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
         <v>134</v>
       </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
       <c r="F74">
-        <v>482.96</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F75">
-        <v>226.2</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,15 +4177,15 @@
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F76">
-        <v>471.84</v>
+        <v>607.04</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -4226,10 +4197,10 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F77">
-        <v>243.44</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4246,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F78">
-        <v>279.83999999999997</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4260,56 +4231,56 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F79">
-        <v>611.84</v>
+        <v>727.98</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>144</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F80">
-        <v>159.9</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>146</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F81">
-        <v>210.3</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,53 +4291,53 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F82">
-        <v>724.38</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F83">
-        <v>222.78</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="F84">
         <v>222.78</v>
@@ -4374,62 +4345,62 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
         <v>153</v>
       </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" t="s">
-        <v>145</v>
-      </c>
       <c r="F85">
-        <v>222.78</v>
+        <v>164.4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F86">
-        <v>222.78</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F87">
-        <v>222.78</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4440,133 +4411,133 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>164.4</v>
+        <v>334.74</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>164.76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F90">
-        <v>230</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F91">
-        <v>334.74</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F92">
-        <v>173</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F93">
-        <v>218.98</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F94">
         <v>222.78</v>
@@ -4574,19 +4545,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F95">
         <v>222.78</v>
@@ -4594,19 +4565,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F96">
         <v>222.78</v>
@@ -4614,19 +4585,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F97">
         <v>222.78</v>
@@ -4634,19 +4605,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F98">
         <v>222.78</v>
@@ -4654,19 +4625,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F99">
         <v>222.78</v>
@@ -4674,42 +4645,42 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="F100">
-        <v>222.78</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
         <v>184</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" t="s">
-        <v>98</v>
-      </c>
       <c r="F101">
-        <v>222.78</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,76 +4691,76 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="F102">
-        <v>222.78</v>
+        <v>2084.94</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F103">
-        <v>245.72</v>
+        <v>2134.14</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F104">
-        <v>1376.08</v>
+        <v>1394.1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>191</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>20</v>
-      </c>
       <c r="D105" t="s">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F105">
-        <v>2050.14</v>
+        <v>1081.6600000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4800,16 +4771,16 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F106">
-        <v>2107.7399999999998</v>
+        <v>1207.6600000000001</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,10 +4797,10 @@
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F107">
-        <v>1413.3</v>
+        <v>909.06</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,36 +4811,36 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F108">
-        <v>1082.8599999999999</v>
+        <v>901.86</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>197</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>196</v>
-      </c>
       <c r="D109" t="s">
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F109">
-        <v>1188.46</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,10 +4857,10 @@
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F110">
-        <v>906.66</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,156 +4871,156 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F111">
-        <v>919.86</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
         <v>202</v>
       </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>139</v>
-      </c>
       <c r="F112">
-        <v>222.78</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="F113">
-        <v>222.78</v>
+        <v>225.14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F114">
-        <v>222.78</v>
+        <v>203.84</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F115">
-        <v>222.78</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F116">
-        <v>627.55999999999995</v>
+        <v>676.62</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F117">
-        <v>223.94</v>
+        <v>697.6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F118">
-        <v>203.84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5060,196 +5031,196 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F119">
-        <v>152.4</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>218</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>219</v>
-      </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="F120">
-        <v>659.82</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>220</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>221</v>
-      </c>
       <c r="D121" t="s">
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="F121">
-        <v>657.62</v>
+        <v>186.2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F122">
-        <v>168</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F123">
-        <v>168</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F124">
-        <v>154.97999999999999</v>
+        <v>222.78</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>186.2</v>
+        <v>1034.8399999999999</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F126">
-        <v>204.3</v>
+        <v>1024.3599999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F127">
-        <v>204.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>225</v>
-      </c>
       <c r="D128" t="s">
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F128">
-        <v>222.78</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,36 +5231,36 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F129">
-        <v>835.24</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>232</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>233</v>
-      </c>
       <c r="D130" t="s">
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F130">
-        <v>821.16</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5300,61 +5271,61 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F131">
-        <v>3.6</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="F132">
-        <v>649</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F133">
-        <v>248.3</v>
+        <v>194.6</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -5366,110 +5337,110 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F134">
-        <v>248.3</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F135">
-        <v>246.78</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F136">
-        <v>246.78</v>
+        <v>248.3</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>243</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>244</v>
-      </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="F137">
-        <v>193.4</v>
+        <v>644.79999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
         <v>245</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>246</v>
-      </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="F138">
-        <v>136.19999999999999</v>
+        <v>189.02</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>247</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>225</v>
-      </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="F139">
-        <v>222.78</v>
+        <v>692</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5480,16 +5451,16 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>222.78</v>
+        <v>205.56</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,16 +5471,16 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
         <v>250</v>
       </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
-        <v>207</v>
-      </c>
       <c r="F141">
-        <v>144.80000000000001</v>
+        <v>161.80000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5520,156 +5491,156 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F142">
-        <v>187.82</v>
+        <v>160.6</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F143">
-        <v>674</v>
+        <v>222.78</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F144">
-        <v>205.56</v>
+        <v>222.78</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F145">
-        <v>244.64</v>
+        <v>193.8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F146">
-        <v>182.64</v>
+        <v>193.8</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>222.78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>222.78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>260</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
         <v>261</v>
       </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>227</v>
-      </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="F149">
-        <v>193.8</v>
+        <v>752.86</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5680,27 +5651,27 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="F150">
-        <v>193.8</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
@@ -5709,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="F151">
-        <v>141</v>
+        <v>222.78</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5729,7 +5700,7 @@
         <v>10</v>
       </c>
       <c r="F152">
-        <v>141</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5746,10 +5717,10 @@
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>733.66</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5766,10 +5737,10 @@
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>201.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5780,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -5789,38 +5760,38 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>222.78</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -5829,18 +5800,18 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -5854,42 +5825,42 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="F159">
-        <v>4.8</v>
+        <v>483.4</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
         <v>280</v>
       </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" t="s">
-        <v>281</v>
-      </c>
       <c r="D160" t="s">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="F160">
-        <v>4.8</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="F161">
-        <v>1.2</v>
+        <v>222.78</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5929,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="F162">
-        <v>10.8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,10 +5917,10 @@
         <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F163">
-        <v>2.4</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5966,10 +5937,10 @@
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F164">
-        <v>512.20000000000005</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5980,116 +5951,116 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="F165">
-        <v>136.19999999999999</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F166">
-        <v>222.78</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F167">
-        <v>230</v>
+        <v>281.39999999999998</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F168">
-        <v>73.2</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F169">
-        <v>1.2</v>
+        <v>203.2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F170">
-        <v>378.2</v>
+        <v>783.58</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,10 +6077,10 @@
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="F171">
-        <v>381.8</v>
+        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6126,10 +6097,10 @@
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="F172">
-        <v>281.39999999999998</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6146,30 +6117,30 @@
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="F173">
-        <v>485</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>308</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>306</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
         <v>307</v>
       </c>
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" t="s">
-        <v>308</v>
-      </c>
-      <c r="D174" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" t="s">
-        <v>121</v>
-      </c>
       <c r="F174">
-        <v>200.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6180,16 +6151,16 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="F175">
-        <v>283.58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6200,56 +6171,56 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="F176">
-        <v>699.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c r="F177">
-        <v>18</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F178">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6260,81 +6231,81 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F179">
-        <v>1.2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F180">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="F182">
-        <v>79.2</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -6346,70 +6317,70 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>250.2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="F184">
-        <v>104.4</v>
+        <v>164.4</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="F185">
-        <v>2.4</v>
+        <v>203.9</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c r="F186">
-        <v>14.4</v>
+        <v>860.8</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6426,10 +6397,10 @@
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F187">
-        <v>349.6</v>
+        <v>129.30000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6440,107 +6411,107 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F188">
-        <v>250.2</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F189">
-        <v>164.4</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="F190">
-        <v>201.5</v>
+        <v>235.7</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="F191">
-        <v>851.2</v>
+        <v>161.30000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F192">
-        <v>129.30000000000001</v>
+        <v>381.6</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
@@ -6549,18 +6520,18 @@
         <v>91</v>
       </c>
       <c r="F193">
-        <v>135.5</v>
+        <v>353.8</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -6569,12 +6540,12 @@
         <v>91</v>
       </c>
       <c r="F194">
-        <v>285.10000000000002</v>
+        <v>227.9</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -6586,230 +6557,230 @@
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F195">
-        <v>232.1</v>
+        <v>132.78</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F196">
-        <v>161.30000000000001</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="F197">
-        <v>417.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F198">
-        <v>351.4</v>
+        <v>145.24</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F199">
-        <v>225.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="F200">
-        <v>131.58000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F201">
-        <v>104.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="F202">
-        <v>1.2</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="F203">
-        <v>145.24</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F204">
-        <v>137.4</v>
+        <v>934.14</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F205">
-        <v>1.2</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F206">
-        <v>1.2</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6826,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F207">
-        <v>177.7</v>
+        <v>165.1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6840,76 +6811,76 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="F208">
-        <v>7.2</v>
+        <v>320.10000000000002</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F209">
-        <v>918.54</v>
+        <v>184.6</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="F210">
-        <v>210.5</v>
+        <v>558.20000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>373</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
         <v>374</v>
       </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>217</v>
-      </c>
       <c r="D211" t="s">
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="F211">
-        <v>166.3</v>
+        <v>163.19999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6926,10 +6897,10 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F212">
-        <v>165.1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6940,256 +6911,256 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>145</v>
+        <v>379</v>
       </c>
       <c r="F213">
-        <v>333.3</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>380</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
         <v>378</v>
       </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>376</v>
-      </c>
       <c r="D214" t="s">
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="F214">
-        <v>183.4</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>381</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>382</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
         <v>379</v>
       </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>380</v>
-      </c>
-      <c r="D215" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" t="s">
-        <v>207</v>
-      </c>
       <c r="F215">
-        <v>531.79999999999995</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="F216">
-        <v>163.19999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="F217">
-        <v>135</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F218">
-        <v>127.84</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>389</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
         <v>388</v>
       </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>386</v>
-      </c>
       <c r="D219" t="s">
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F219">
-        <v>127.84</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F220">
-        <v>135.44</v>
+        <v>203.9</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>387</v>
+        <v>27</v>
       </c>
       <c r="F221">
-        <v>134.24</v>
+        <v>368.8</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>387</v>
+        <v>27</v>
       </c>
       <c r="F222">
-        <v>157.94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="F223">
-        <v>177.64</v>
+        <v>1335.8</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="F224">
-        <v>177.64</v>
+        <v>284.2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>399</v>
+        <v>105</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="F225">
-        <v>203.9</v>
+        <v>286.60000000000002</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7206,10 +7177,10 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F226">
-        <v>207.4</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7226,10 +7197,10 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="F227">
-        <v>1369.76</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7240,96 +7211,96 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>211</v>
+        <v>405</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F228">
-        <v>284.2</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F229">
-        <v>285.39999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F230">
-        <v>276.8</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F231">
-        <v>167</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F232">
-        <v>131.19999999999999</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7346,10 +7317,10 @@
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="F233">
-        <v>2.4</v>
+        <v>1381.2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7360,96 +7331,96 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>415</v>
+        <v>210</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F234">
-        <v>189.6</v>
+        <v>760.4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F235">
-        <v>131.19999999999999</v>
+        <v>163.19999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F236">
-        <v>136.19999999999999</v>
+        <v>279.2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>417</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
         <v>418</v>
       </c>
-      <c r="B237" t="s">
-        <v>7</v>
-      </c>
-      <c r="C237" t="s">
-        <v>419</v>
-      </c>
       <c r="D237" t="s">
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F237">
-        <v>1598.4</v>
+        <v>544.79999999999995</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>419</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
         <v>420</v>
       </c>
-      <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" t="s">
-        <v>217</v>
-      </c>
       <c r="D238" t="s">
         <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="F238">
-        <v>726.8</v>
+        <v>194.6</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7460,27 +7431,27 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="F239">
-        <v>164.4</v>
+        <v>163.19999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -7489,27 +7460,27 @@
         <v>17</v>
       </c>
       <c r="F240">
-        <v>270.8</v>
+        <v>301.39999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F241">
-        <v>164.4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,10 +7497,10 @@
         <v>9</v>
       </c>
       <c r="E242" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="F242">
-        <v>191</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7546,10 +7517,10 @@
         <v>9</v>
       </c>
       <c r="E243" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="F243">
-        <v>164.4</v>
+        <v>900</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7560,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
@@ -7574,19 +7545,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F245">
         <v>900</v>
@@ -7594,39 +7565,39 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F246">
-        <v>168.2</v>
+        <v>900</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F247">
         <v>900</v>
@@ -7634,22 +7605,62 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B248" t="s">
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="F248">
         <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>434</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>218</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>435</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>218</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250">
+        <v>202.4</v>
       </c>
     </row>
   </sheetData>
@@ -7658,11 +7669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4461D618-F376-42FB-AF15-64003DD06807}">
-  <dimension ref="A1:F200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047FA91A-7D9C-426D-9A97-3320FE8010D7}">
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,7 +7706,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -7715,7 +7726,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -7755,7 +7766,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -7784,7 +7795,7 @@
         <v>43</v>
       </c>
       <c r="F6">
-        <v>386.8</v>
+        <v>497.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7824,7 +7835,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>435.2</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7895,7 +7906,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -7915,7 +7926,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -7935,7 +7946,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -7955,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -7975,7 +7986,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -8075,13 +8086,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>342</v>
@@ -8095,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -8195,7 +8206,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -8215,7 +8226,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -8235,7 +8246,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -8255,7 +8266,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -8275,7 +8286,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -8295,7 +8306,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -8355,7 +8366,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -8375,7 +8386,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -8395,7 +8406,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -8415,7 +8426,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -8435,13 +8446,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F39">
         <v>342</v>
@@ -8455,13 +8466,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <v>342</v>
@@ -8475,13 +8486,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F41">
         <v>342</v>
@@ -8535,13 +8546,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <v>342</v>
@@ -8555,13 +8566,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F45">
         <v>342</v>
@@ -8575,13 +8586,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F46">
         <v>342</v>
@@ -8595,13 +8606,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F47">
         <v>342</v>
@@ -8615,13 +8626,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>342</v>
@@ -8635,13 +8646,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F49">
         <v>342</v>
@@ -8655,13 +8666,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F50">
         <v>342</v>
@@ -8675,13 +8686,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F51">
         <v>342</v>
@@ -8695,13 +8706,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52">
         <v>342</v>
@@ -8715,13 +8726,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F53">
         <v>342</v>
@@ -8735,13 +8746,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F54">
         <v>342</v>
@@ -8755,7 +8766,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -8775,7 +8786,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -8795,7 +8806,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -8815,7 +8826,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -8835,7 +8846,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -8855,7 +8866,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -8875,7 +8886,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -8895,7 +8906,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -9035,7 +9046,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -9075,13 +9086,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F71">
         <v>327</v>
@@ -9095,13 +9106,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F72">
         <v>327</v>
@@ -9115,13 +9126,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F73">
         <v>327</v>
@@ -9135,13 +9146,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F74">
         <v>327</v>
@@ -9155,13 +9166,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F75">
         <v>327</v>
@@ -9181,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F76">
         <v>327</v>
@@ -9201,7 +9212,7 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F77">
         <v>342</v>
@@ -9221,7 +9232,7 @@
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F78">
         <v>342</v>
@@ -9241,7 +9252,7 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>342</v>
@@ -9261,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80">
         <v>342</v>
@@ -9281,7 +9292,7 @@
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F81">
         <v>342</v>
@@ -9301,7 +9312,7 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F82">
         <v>342</v>
@@ -9321,7 +9332,7 @@
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F83">
         <v>342</v>
@@ -9381,7 +9392,7 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F86">
         <v>342</v>
@@ -9521,7 +9532,7 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F93">
         <v>342</v>
@@ -9541,7 +9552,7 @@
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F94">
         <v>342</v>
@@ -9561,7 +9572,7 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F95">
         <v>342</v>
@@ -9581,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F96">
         <v>342</v>
@@ -9601,7 +9612,7 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F97">
         <v>342</v>
@@ -9621,7 +9632,7 @@
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F98">
         <v>342</v>
@@ -9635,13 +9646,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F99">
         <v>342</v>
@@ -9655,13 +9666,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F100">
         <v>342</v>
@@ -9681,7 +9692,7 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F101">
         <v>342</v>
@@ -9701,7 +9712,7 @@
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F102">
         <v>342</v>
@@ -9715,7 +9726,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -9735,7 +9746,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -9761,7 +9772,7 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F105">
         <v>342</v>
@@ -9781,7 +9792,7 @@
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106">
         <v>342</v>
@@ -9801,7 +9812,7 @@
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F107">
         <v>342</v>
@@ -9821,7 +9832,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F108">
         <v>342</v>
@@ -9841,7 +9852,7 @@
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F109">
         <v>342</v>
@@ -9861,7 +9872,7 @@
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F110">
         <v>342</v>
@@ -9875,13 +9886,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F111">
         <v>342</v>
@@ -9895,13 +9906,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F112">
         <v>342</v>
@@ -9955,7 +9966,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -9975,7 +9986,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -9995,7 +10006,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -10015,7 +10026,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -10035,7 +10046,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -10055,7 +10066,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -10081,7 +10092,7 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F121">
         <v>342</v>
@@ -10101,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F122">
         <v>342</v>
@@ -10115,7 +10126,7 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -10135,7 +10146,7 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -10161,7 +10172,7 @@
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F125">
         <v>342</v>
@@ -10181,7 +10192,7 @@
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F126">
         <v>342</v>
@@ -10201,7 +10212,7 @@
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F127">
         <v>342</v>
@@ -10221,7 +10232,7 @@
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F128">
         <v>342</v>
@@ -10241,7 +10252,7 @@
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F129">
         <v>342</v>
@@ -10261,7 +10272,7 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F130">
         <v>342</v>
@@ -10281,7 +10292,7 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F131">
         <v>342</v>
@@ -10301,7 +10312,7 @@
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F132">
         <v>342</v>
@@ -10321,7 +10332,7 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F133">
         <v>342</v>
@@ -10341,7 +10352,7 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F134">
         <v>342</v>
@@ -10355,13 +10366,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F135">
         <v>342</v>
@@ -10375,13 +10386,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F136">
         <v>342</v>
@@ -10395,7 +10406,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -10415,7 +10426,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -10475,13 +10486,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F141">
         <v>342</v>
@@ -10495,7 +10506,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -10515,7 +10526,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -10541,7 +10552,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F144">
         <v>342</v>
@@ -10561,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F145">
         <v>342</v>
@@ -10655,13 +10666,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>627</v>
+        <v>220</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F150">
         <v>342</v>
@@ -10675,13 +10686,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>627</v>
+        <v>220</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F151">
         <v>342</v>
@@ -10695,13 +10706,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F152">
         <v>342</v>
@@ -10715,13 +10726,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D153" t="s">
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F153">
         <v>342</v>
@@ -10735,13 +10746,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F154">
         <v>342</v>
@@ -10755,13 +10766,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F155">
         <v>342</v>
@@ -10775,13 +10786,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F156">
         <v>342</v>
@@ -10795,13 +10806,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F157">
         <v>342</v>
@@ -10815,13 +10826,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F158">
         <v>342</v>
@@ -10835,13 +10846,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F159">
         <v>342</v>
@@ -10855,13 +10866,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F160">
         <v>342</v>
@@ -10875,7 +10886,7 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
@@ -10895,7 +10906,7 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
@@ -10915,7 +10926,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
@@ -10935,7 +10946,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
@@ -10955,7 +10966,7 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
@@ -10975,7 +10986,7 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -10995,13 +11006,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F167">
         <v>342</v>
@@ -11015,13 +11026,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F168">
         <v>342</v>
@@ -11035,13 +11046,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F169">
         <v>342</v>
@@ -11055,13 +11066,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F170">
         <v>342</v>
@@ -11075,13 +11086,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F171">
         <v>342</v>
@@ -11095,13 +11106,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F172">
         <v>342</v>
@@ -11115,13 +11126,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F173">
         <v>342</v>
@@ -11135,13 +11146,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F174">
         <v>342</v>
@@ -11155,13 +11166,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F175">
         <v>342</v>
@@ -11175,13 +11186,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F176">
         <v>342</v>
@@ -11195,13 +11206,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F177">
         <v>342</v>
@@ -11215,13 +11226,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F178">
         <v>342</v>
@@ -11235,13 +11246,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F179">
         <v>342</v>
@@ -11255,13 +11266,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F180">
         <v>342</v>
@@ -11275,13 +11286,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F181">
         <v>342</v>
@@ -11295,13 +11306,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F182">
         <v>342</v>
@@ -11315,53 +11326,53 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>665</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F183">
-        <v>342</v>
+        <v>594</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>342</v>
+        <v>1320.8</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>227</v>
+        <v>668</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
       <c r="F185">
         <v>342</v>
@@ -11369,19 +11380,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>227</v>
+        <v>668</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
       <c r="F186">
         <v>342</v>
@@ -11389,67 +11400,67 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>670</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
         <v>668</v>
       </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" t="s">
-        <v>669</v>
-      </c>
       <c r="D187" t="s">
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="F187">
-        <v>594</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>268</v>
+        <v>668</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>379</v>
       </c>
       <c r="F188">
-        <v>1089.2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>672</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="F189">
-        <v>1864.8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -11461,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F190">
         <v>342</v>
@@ -11469,7 +11480,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -11481,7 +11492,7 @@
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F191">
         <v>342</v>
@@ -11489,7 +11500,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -11501,7 +11512,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F192">
         <v>342</v>
@@ -11509,7 +11520,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -11521,7 +11532,7 @@
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F193">
         <v>342</v>
@@ -11529,59 +11540,59 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>315</v>
+        <v>680</v>
       </c>
       <c r="F194">
-        <v>342</v>
+        <v>519.20000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>681</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
         <v>679</v>
       </c>
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" t="s">
-        <v>678</v>
-      </c>
       <c r="D195" t="s">
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>315</v>
+        <v>680</v>
       </c>
       <c r="F195">
-        <v>342</v>
+        <v>519.20000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F196">
         <v>342</v>
@@ -11589,82 +11600,42 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>315</v>
+        <v>680</v>
       </c>
       <c r="F197">
-        <v>342</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>315</v>
+        <v>680</v>
       </c>
       <c r="F198">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>683</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" t="s">
-        <v>678</v>
-      </c>
-      <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" t="s">
-        <v>315</v>
-      </c>
-      <c r="F199">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>684</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>685</v>
-      </c>
-      <c r="D200" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" t="s">
-        <v>10</v>
-      </c>
-      <c r="F200">
-        <v>-900</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -11673,11 +11644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208474B4-F107-4130-9A07-D5A4FD359737}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80D9E10-08D4-4278-8639-96E572896A91}">
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11704,19 +11675,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>1710</v>
@@ -11724,19 +11695,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F3">
         <v>537</v>
@@ -11744,19 +11715,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F4">
         <v>537</v>
@@ -11764,19 +11735,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F5">
         <v>195</v>
@@ -11784,19 +11755,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F6">
         <v>195</v>
@@ -11804,19 +11775,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F7">
         <v>195</v>
@@ -11824,42 +11795,42 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F8">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F9">
-        <v>205</v>
+        <v>3397.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11870,37 +11841,20 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F10">
-        <v>3397.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>703</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>704</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11">
-        <v>207.4</v>
-      </c>
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11908,501 +11862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2B3903-4CF0-4E59-A5FA-B0A61F868A6D}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BD2848-B536-4511-BE7A-784921027968}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1638.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="3">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>14336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="3">
-        <v>70.28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1992.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="3">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="3">
-        <v>491.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>256.39999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="3">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F22" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F874849-351E-49A8-B69B-B114C83D4E11}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12429,13 +11893,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -12444,18 +11908,493 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>13.7</v>
+        <v>1638.28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>14352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10">
+        <v>70.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>725</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2002.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>731</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>733</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>734</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>735</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>491.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>736</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>737</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>256.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>739</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>741</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>744</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>745</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23">
+        <v>997.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB9576-8054-42B5-AE96-7478D65F2B5C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>751</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>752</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -12469,13 +12408,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -12489,13 +12428,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -12509,19 +12448,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>755</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>756</v>
-      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F6">
         <v>72.11</v>
